--- a/ATS/hardware/ATS BOM.xlsx
+++ b/ATS/hardware/ATS BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewesterhuizen/Desktop/cas/clock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewesterhuizen/dev/cas/ATS/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E635F-5FE3-BD4F-897B-ACE847894B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D18FF-27F3-D349-A81F-03FCEFCBA880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{0E86B0FE-ACF2-E74D-9A52-52C3298CF1B2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34420" windowHeight="16240" xr2:uid="{0E86B0FE-ACF2-E74D-9A52-52C3298CF1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Part</t>
   </si>
@@ -195,9 +195,6 @@
     <t>LED_3MM</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -246,18 +243,12 @@
     <t>SOT23-BEC</t>
   </si>
   <si>
-    <t>U9</t>
-  </si>
-  <si>
     <t>ATMEGA328P_TQFP</t>
   </si>
   <si>
     <t>TQFP32-08</t>
   </si>
   <si>
-    <t>U10</t>
-  </si>
-  <si>
     <t>MCP6002_</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>J1,J2,J3,J4,J5,J6,J7,J8</t>
   </si>
   <si>
-    <t>VR2,VR3</t>
-  </si>
-  <si>
     <t>R12,R13,R14,R15,R16</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>LED1,LED2,LED3,LED4,LED5</t>
   </si>
   <si>
-    <t>R2,R4,R5,R6,R7,R8,R9,R10,R11,R22,R23</t>
-  </si>
-  <si>
     <t>S1 cap</t>
   </si>
   <si>
@@ -373,6 +358,36 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/ProductDetail/KEMET/C0603C103J5RACAUTO</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Quartz, 20 MHz</t>
+  </si>
+  <si>
+    <t>HC49</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/ABRACON/ABLS2-20000MHZ-D4Y-T?qs=LoTOQoUkC8SXA4t9TL%252BOxw==</t>
+  </si>
+  <si>
+    <t>﻿CRYSTALHC49UP (CRYSTAL) (Version 2)</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>R24,R25</t>
+  </si>
+  <si>
+    <t>R2,R4,R5,R6,R7,R8,R9,R10,R11,R23</t>
+  </si>
+  <si>
+    <t>R1,R22</t>
   </si>
 </sst>
 </file>
@@ -423,12 +438,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -754,14 +766,14 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="94.1640625" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
@@ -771,7 +783,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -791,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -802,8 +814,8 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -811,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -822,8 +834,8 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>99</v>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,8 +854,8 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>96</v>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -862,8 +874,8 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>98</v>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -871,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -882,8 +894,8 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>95</v>
+      <c r="F6" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -891,19 +903,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>94</v>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,19 +923,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
+      <c r="F8" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,19 +943,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>91</v>
+      <c r="F9" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -951,19 +963,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -971,19 +983,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>93</v>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1002,8 +1014,8 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>89</v>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,8 +1034,8 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>88</v>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1031,19 +1043,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>87</v>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,19 +1063,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1071,19 +1083,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1091,19 +1103,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,19 +1123,39 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1131,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -1142,8 +1174,8 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>80</v>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1151,19 +1183,19 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -1182,8 +1214,8 @@
       <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>78</v>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1225,22 +1257,22 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>81</v>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,20 +1280,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
   </sheetData>
@@ -1272,10 +1297,10 @@
     <hyperlink ref="F20" r:id="rId4" xr:uid="{6593B9FC-A9FC-C94D-ADCA-EED6E75DF9B8}"/>
     <hyperlink ref="G25" r:id="rId5" xr:uid="{71847A3D-07D0-D946-B56B-613456B0BD3F}"/>
     <hyperlink ref="F25" r:id="rId6" xr:uid="{92A73972-4B42-BA4B-9EDA-339E3F1E6170}"/>
-    <hyperlink ref="F17" r:id="rId7" xr:uid="{7874A8E2-759A-2D45-BBD9-EC730D227A96}"/>
-    <hyperlink ref="F18" r:id="rId8" xr:uid="{8FB9C1C2-0465-354D-AC0C-FEE5C40A1C52}"/>
-    <hyperlink ref="F16" r:id="rId9" xr:uid="{D549FD65-74A3-2F42-87D3-372923533BB6}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{8A130C5C-C32D-A74C-81B8-C0C80CA40396}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{7874A8E2-759A-2D45-BBD9-EC730D227A96}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{8FB9C1C2-0465-354D-AC0C-FEE5C40A1C52}"/>
+    <hyperlink ref="F19" r:id="rId9" xr:uid="{D549FD65-74A3-2F42-87D3-372923533BB6}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{8A130C5C-C32D-A74C-81B8-C0C80CA40396}"/>
     <hyperlink ref="F14" r:id="rId11" xr:uid="{AE033C82-A166-DC41-B1DB-AD3AD26024F5}"/>
     <hyperlink ref="F13" r:id="rId12" xr:uid="{476DA075-544E-0343-A870-B30DBC35DA2A}"/>
     <hyperlink ref="F12" r:id="rId13" xr:uid="{15A99830-6468-FD40-B57C-C053B21E0612}"/>
@@ -1289,6 +1314,7 @@
     <hyperlink ref="F5" r:id="rId21" xr:uid="{496ADC80-99BC-B04C-B1F9-051E052C7C16}"/>
     <hyperlink ref="F3" r:id="rId22" xr:uid="{2431F9CC-8129-1E4F-8E0A-C07085FB3F66}"/>
     <hyperlink ref="F2" r:id="rId23" xr:uid="{F86777B7-7533-4547-9557-8C1B06E3CBA7}"/>
+    <hyperlink ref="F15" r:id="rId24" xr:uid="{EFC2883A-6BC8-E042-81EE-2D393773A074}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
